--- a/Luban/Source/Modules/Gameplay/Skill.xlsx
+++ b/Luban/Source/Modules/Gameplay/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\DemoQ\Luban\Source\Modules\Gameplay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B96C22C-D48D-4844-B3AD-E80B240D9111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF4C30B-16B5-4B39-80B6-5366AFBF45E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2070" windowWidth="22590" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,80 +403,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Fire,Fire,Fire,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,Water,Water,Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire,Fire,Water,Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,Water,Fire,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast10102</t>
+  </si>
+  <si>
+    <t>cast10103</t>
+  </si>
+  <si>
+    <t>cast10104</t>
+  </si>
+  <si>
+    <t>cast10105</t>
+  </si>
+  <si>
+    <t>cast10106</t>
+  </si>
+  <si>
+    <t>cast10107</t>
+  </si>
+  <si>
+    <t>cast10108</t>
+  </si>
+  <si>
+    <t>单火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双火双水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双水双火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire,Fire,Fire,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water,Water,Water,Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire,Fire,Water,Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water,Water,Fire,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cast10102</t>
-  </si>
-  <si>
-    <t>cast10103</t>
-  </si>
-  <si>
-    <t>cast10104</t>
-  </si>
-  <si>
-    <t>cast10105</t>
-  </si>
-  <si>
-    <t>cast10106</t>
-  </si>
-  <si>
-    <t>cast10107</t>
-  </si>
-  <si>
-    <t>cast10108</t>
-  </si>
-  <si>
-    <t>单火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双火双水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双水双火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -964,11 +976,11 @@
     <col min="15" max="15" width="9.6640625" style="5" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" style="5" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="5" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="5"/>
+    <col min="18" max="19" width="12.1640625" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1025,11 @@
       </c>
       <c r="Q1" s="9"/>
       <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1074,11 @@
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1090,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1117,8 +1135,11 @@
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1144,12 +1165,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>10101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -1167,7 +1188,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>22</v>
@@ -1190,13 +1211,16 @@
       <c r="R6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>10102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -1214,10 +1238,10 @@
         <v>93</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>59</v>
@@ -1237,13 +1261,16 @@
       <c r="R7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>10103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1264,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>59</v>
@@ -1284,13 +1311,16 @@
       <c r="R8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>10104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1311,7 +1341,7 @@
         <v>84</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>59</v>
@@ -1331,13 +1361,16 @@
       <c r="R9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>10105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -1355,10 +1388,10 @@
         <v>93</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>59</v>
@@ -1378,13 +1411,16 @@
       <c r="R10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>10106</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -1402,10 +1438,10 @@
         <v>93</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>59</v>
@@ -1425,13 +1461,16 @@
       <c r="R11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>10107</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -1449,10 +1488,10 @@
         <v>93</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>59</v>
@@ -1472,13 +1511,16 @@
       <c r="R12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10108</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -1496,10 +1538,10 @@
         <v>93</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>59</v>
@@ -1519,8 +1561,11 @@
       <c r="R13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10201</v>
       </c>
@@ -1566,8 +1611,11 @@
       <c r="R14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>10202</v>
       </c>
@@ -1613,8 +1661,11 @@
       <c r="R15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>10301</v>
       </c>
@@ -1660,8 +1711,11 @@
       <c r="R16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>10302</v>
       </c>
@@ -1707,8 +1761,11 @@
       <c r="R17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>10401</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="R18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>10402</v>
       </c>
@@ -1804,8 +1864,11 @@
       <c r="R19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>10501</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="R20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>10502</v>
       </c>
@@ -1898,8 +1964,11 @@
       <c r="R21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>10601</v>
       </c>
@@ -1945,8 +2014,11 @@
       <c r="R22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>10602</v>
       </c>
@@ -1992,8 +2064,11 @@
       <c r="R23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>10701</v>
       </c>
@@ -2039,8 +2114,11 @@
       <c r="R24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>10702</v>
       </c>
@@ -2086,8 +2164,11 @@
       <c r="R25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S25" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>20101</v>
       </c>
@@ -2130,8 +2211,11 @@
       <c r="R26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S26" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>20102</v>
       </c>
@@ -2177,8 +2261,11 @@
       <c r="R27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S27" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>20201</v>
       </c>
@@ -2220,6 +2307,9 @@
       </c>
       <c r="R28" s="5">
         <v>1</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
